--- a/files/procurement_plan_IIIa_GOODS.xlsx
+++ b/files/procurement_plan_IIIa_GOODS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Annex - III (a)</t>
   </si>
@@ -23,13 +23,38 @@
     <t>Ref: PPR, 2008</t>
   </si>
   <si>
+    <t>Project Name: The project name will go here</t>
+  </si>
+  <si>
+    <t>Ministry/Division: Ministry/Division name will go here</t>
+  </si>
+  <si>
+    <t>Agency: Agency name will go here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total GoB (FE): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procuring Entity Name and Code: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total PA (RPA): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project/Programme Code: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others (FE): </t>
+  </si>
+  <si>
     <t>Total procurement plan for development project/programme</t>
   </si>
   <si>
     <t>Package No.</t>
   </si>
   <si>
-    <t>Description of Procurement Package as per DPP/TPP</t>
+    <t>Description of Procurement Package as per DPP/TPP
+GOODS</t>
   </si>
   <si>
     <t>Unit</t>
@@ -83,16 +108,22 @@
     <t>2014-06-01</t>
   </si>
   <si>
+    <t>adfsdf cs;sc</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>0000-11-30</t>
+  </si>
+  <si>
+    <t>adfsdf sdsd</t>
+  </si>
+  <si>
     <t>adfsdf</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>0000-11-30</t>
   </si>
   <si>
     <t>OTM(INT)</t>
@@ -210,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -223,17 +254,32 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -241,10 +287,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -544,7 +587,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -558,7 +601,7 @@
     <col min="6" max="6" width="12" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
     <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
     <col min="10" max="10" width="15" customWidth="true" style="0"/>
     <col min="11" max="11" width="15" customWidth="true" style="0"/>
     <col min="12" max="12" width="15" customWidth="true" style="0"/>
@@ -596,442 +639,542 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="10" t="s"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="10" t="s"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6">
-        <v>34</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7">
-        <v>12</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>100</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6">
-        <v>100</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="12">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
         <v>34</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7">
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12">
         <v>12</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="12">
+        <v>100</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="D18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6">
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="12">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="12">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7">
+      <c r="E20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="12">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6">
+      <c r="I20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="12">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="H22" s="12">
+        <v>100</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10">
-        <f>SUM(H7:H16)</f>
+      <c r="J22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15">
+        <f>SUM(H7:H22)</f>
         <v>292</v>
       </c>
-      <c r="I17" s="9" t="s"/>
-      <c r="J17" s="11" t="s"/>
-      <c r="K17" s="9" t="s"/>
-      <c r="L17" s="9" t="s"/>
+      <c r="I23" s="14" t="s"/>
+      <c r="J23" s="14" t="s"/>
+      <c r="K23" s="14" t="s"/>
+      <c r="L23" s="14" t="s"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
